--- a/data_excel/322.xlsx
+++ b/data_excel/322.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20369"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\林鈺馨\Desktop\tmp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AI_DATA\excel\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F699388A-70F4-4858-A3CD-BEBC81AB905A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="50">
   <si>
     <t>你</t>
   </si>
@@ -176,14 +175,18 @@
   </si>
   <si>
     <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,6 +201,13 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -207,7 +217,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -215,12 +225,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -522,16 +548,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -551,7 +577,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -571,7 +597,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -591,7 +617,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -607,11 +633,11 @@
       <c r="F4" t="s">
         <v>14</v>
       </c>
-      <c r="G4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G4" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -631,7 +657,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -645,7 +671,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -656,7 +682,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -667,7 +693,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -678,7 +704,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -689,7 +715,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -700,7 +726,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -711,7 +737,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -719,7 +745,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -730,7 +756,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -741,7 +767,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -752,7 +778,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -763,7 +789,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -774,7 +800,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -785,7 +811,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -793,7 +819,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -804,7 +830,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -815,7 +841,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -826,7 +852,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -837,7 +863,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -848,7 +874,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -856,7 +882,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -867,7 +893,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -878,7 +904,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -889,7 +915,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -900,7 +926,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -911,7 +937,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -922,7 +948,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>2</v>
       </c>
@@ -933,7 +959,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -944,7 +970,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -955,7 +981,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>38</v>
       </c>

--- a/data_excel/322.xlsx
+++ b/data_excel/322.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AI_DATA\excel\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -114,9 +114,6 @@
     <t>剩下</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
     <t>的</t>
   </si>
   <si>
@@ -179,6 +176,10 @@
   </si>
   <si>
     <t>=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -551,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -565,7 +566,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -574,7 +575,7 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -585,7 +586,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -594,7 +595,7 @@
         <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -605,7 +606,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -614,7 +615,7 @@
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -625,7 +626,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -634,7 +635,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -645,7 +646,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
@@ -654,7 +655,7 @@
         <v>7</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -679,7 +680,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -690,7 +691,7 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -701,7 +702,7 @@
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -712,7 +713,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -723,7 +724,7 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -734,7 +735,7 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -753,7 +754,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -764,7 +765,7 @@
         <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -775,7 +776,7 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -786,7 +787,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -797,7 +798,7 @@
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -808,7 +809,7 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -827,7 +828,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -838,7 +839,7 @@
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -849,7 +850,7 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -860,7 +861,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -871,7 +872,7 @@
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -882,7 +883,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -890,62 +891,62 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>30</v>
       </c>
-      <c r="B28" t="s">
-        <v>31</v>
+      <c r="B28" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
         <v>32</v>
       </c>
-      <c r="B29" t="s">
-        <v>33</v>
-      </c>
       <c r="C29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B31" t="s">
         <v>21</v>
       </c>
       <c r="C31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
         <v>36</v>
       </c>
-      <c r="B32" t="s">
-        <v>37</v>
-      </c>
       <c r="C32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -956,7 +957,7 @@
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -967,7 +968,7 @@
         <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -978,12 +979,12 @@
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B36" t="s">
         <v>17</v>
